--- a/output/薪水總表.xlsx
+++ b/output/薪水總表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>老師姓名</t>
   </si>
@@ -25,6 +25,9 @@
     <t>傅俊翔</t>
   </si>
   <si>
+    <t>劉冠緯</t>
+  </si>
+  <si>
     <t>吳冬羽</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>張孟綺</t>
   </si>
   <si>
+    <t>張新岳</t>
+  </si>
+  <si>
     <t>徐昕語</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>鄭伊育</t>
+  </si>
+  <si>
+    <t>鄭名佑</t>
   </si>
   <si>
     <t>陳亮臣</t>
@@ -437,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>625</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -472,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -480,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -488,7 +497,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -496,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>520</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -504,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>875</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -512,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1250</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -520,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -528,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>545</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -536,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>542.5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -544,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1875</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -552,7 +561,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -560,7 +569,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2500</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -568,7 +577,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1125</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -576,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -584,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>875</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -592,7 +601,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -600,7 +609,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -608,7 +617,31 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1250</v>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1875</v>
       </c>
     </row>
   </sheetData>

--- a/output/薪水總表.xlsx
+++ b/output/薪水總表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>老師姓名</t>
   </si>
@@ -22,6 +22,9 @@
     <t>總薪水</t>
   </si>
   <si>
+    <t>何宥嶙</t>
+  </si>
+  <si>
     <t>傅俊翔</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>張哲銘</t>
   </si>
   <si>
+    <t>張士庭</t>
+  </si>
+  <si>
     <t>張孟綺</t>
   </si>
   <si>
@@ -70,6 +76,15 @@
     <t>胡之耀</t>
   </si>
   <si>
+    <t>許景崴</t>
+  </si>
+  <si>
+    <t>許永暉</t>
+  </si>
+  <si>
+    <t>賴威宏</t>
+  </si>
+  <si>
     <t>賴聖元</t>
   </si>
   <si>
@@ -83,6 +98,9 @@
   </si>
   <si>
     <t>陳彥融</t>
+  </si>
+  <si>
+    <t>陳柏宇</t>
   </si>
   <si>
     <t>陳禎</t>
@@ -446,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1375</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -473,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -481,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -489,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -497,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -505,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -513,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>525</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -521,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>875</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -529,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1375</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -537,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2375</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -545,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1500</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -553,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>925</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -561,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>550</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -569,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4125</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -577,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1500</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -585,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2500</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -593,7 +611,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1125</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -601,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -609,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>500</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -617,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>875</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -625,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -633,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1500</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -641,7 +659,55 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1875</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>4500</v>
       </c>
     </row>
   </sheetData>

--- a/output/薪水總表.xlsx
+++ b/output/薪水總表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>老師姓名</t>
   </si>
@@ -55,12 +55,18 @@
     <t>徐昕語</t>
   </si>
   <si>
+    <t>曾浚傑</t>
+  </si>
+  <si>
     <t>林恩宏</t>
   </si>
   <si>
     <t>林祐玄</t>
   </si>
   <si>
+    <t>梁鎧晟</t>
+  </si>
+  <si>
     <t>王芃元</t>
   </si>
   <si>
@@ -107,6 +113,9 @@
   </si>
   <si>
     <t>顏廷安</t>
+  </si>
+  <si>
+    <t>黃瑜富</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>625</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -491,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2500</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -499,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -515,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -531,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -555,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>875</v>
+        <v>-5375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -563,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1875</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -571,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3625</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -579,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>3000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -587,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1425</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -595,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1650</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -603,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5775</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -611,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1500</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -619,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2500</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -627,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1875</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -635,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1175</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -643,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1250</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -651,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1125</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -659,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -667,7 +676,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>500</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -675,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>875</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -691,7 +700,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1000</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -699,7 +708,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -707,7 +716,31 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>4500</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/output/薪水總表.xlsx
+++ b/output/薪水總表.xlsx
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7750</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1750</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -628,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>8150</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -684,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -700,7 +700,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>875</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -708,7 +708,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -716,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1000</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>6375</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="33" spans="1:2">

--- a/output/薪水總表.xlsx
+++ b/output/薪水總表.xlsx
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1875</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3000</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1250</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -548,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2250</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-5375</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5500</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -612,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1925</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -620,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2725</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -628,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>9150</v>
+        <v>10325</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -644,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -668,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1250</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -684,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -724,7 +724,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:2">

--- a/output/薪水總表.xlsx
+++ b/output/薪水總表.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="薪水總表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>老師姓名</t>
-  </si>
-  <si>
-    <t>總薪水</t>
+    <t>老師</t>
+  </si>
+  <si>
+    <t>薪水總額</t>
   </si>
   <si>
     <t>何宥嶙</t>
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3375</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13250</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3625</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2300</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -548,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2750</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-5000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4375</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6750</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -628,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10325</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -636,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -644,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3750</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3750</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -668,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -676,7 +676,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5375</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -684,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -700,7 +700,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -716,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -724,7 +724,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>8250</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="33" spans="1:2">

--- a/output/薪水總表.xlsx
+++ b/output/薪水總表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>老師</t>
   </si>
@@ -37,9 +37,15 @@
     <t>吳若水</t>
   </si>
   <si>
+    <t>姜俊瑋</t>
+  </si>
+  <si>
     <t>常樂</t>
   </si>
   <si>
+    <t>張于訓</t>
+  </si>
+  <si>
     <t>張哲銘</t>
   </si>
   <si>
@@ -58,15 +64,27 @@
     <t>曾浚傑</t>
   </si>
   <si>
+    <t>朱立承</t>
+  </si>
+  <si>
     <t>林恩宏</t>
   </si>
   <si>
     <t>林祐玄</t>
   </si>
   <si>
+    <t>林翰寬</t>
+  </si>
+  <si>
+    <t>林育賢</t>
+  </si>
+  <si>
     <t>梁鎧晟</t>
   </si>
   <si>
+    <t>楊秉達</t>
+  </si>
+  <si>
     <t>王芃元</t>
   </si>
   <si>
@@ -76,9 +94,6 @@
     <t>粘耀璟</t>
   </si>
   <si>
-    <t>羅然</t>
-  </si>
-  <si>
     <t>胡之耀</t>
   </si>
   <si>
@@ -91,10 +106,13 @@
     <t>賴威宏</t>
   </si>
   <si>
+    <t>賴昱劭</t>
+  </si>
+  <si>
     <t>賴聖元</t>
   </si>
   <si>
-    <t>鄭伊育</t>
+    <t>郭家豪</t>
   </si>
   <si>
     <t>鄭名佑</t>
@@ -103,9 +121,6 @@
     <t>陳亮臣</t>
   </si>
   <si>
-    <t>陳彥融</t>
-  </si>
-  <si>
     <t>陳柏宇</t>
   </si>
   <si>
@@ -113,6 +128,9 @@
   </si>
   <si>
     <t>顏廷安</t>
+  </si>
+  <si>
+    <t>黃丞毅</t>
   </si>
   <si>
     <t>黃瑜富</t>
@@ -473,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2215</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -500,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5250</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -508,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1625</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -516,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2625</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1380</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -532,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -540,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -548,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2675</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>525</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -564,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3200</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -572,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3250</v>
+        <v>-1975</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -580,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1875</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -588,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4750</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -596,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3500</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -604,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -612,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2550</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -620,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3250</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -628,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>9325</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -636,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3000</v>
+        <v>-2700</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -644,7 +662,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2250</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -652,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1750</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -660,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1800</v>
+        <v>-1890</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -668,7 +686,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1500</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -676,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2875</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -684,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3000</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -692,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1000</v>
+        <v>-3600</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -700,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2000</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -708,7 +726,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1500</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -716,7 +734,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2400</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -724,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>6000</v>
+        <v>-3800</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -732,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4625</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -740,7 +758,55 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1500</v>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/薪水總表.xlsx
+++ b/output/薪水總表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>老師</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>陳亮臣</t>
+  </si>
+  <si>
+    <t>陳彥融</t>
   </si>
   <si>
     <t>陳柏宇</t>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2105</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4375</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -574,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3300</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -582,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5250</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -606,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -630,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3750</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -638,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -646,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2150</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -662,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1375</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -670,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2250</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -678,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>-1890</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -694,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3795</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -702,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>6125</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -734,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1950</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -742,7 +745,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-3800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -750,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -766,7 +769,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>6250</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -774,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>4350</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -782,7 +785,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>6300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -790,7 +793,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4500</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -798,7 +801,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -806,7 +809,15 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>3600</v>
       </c>
     </row>
   </sheetData>
